--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/MphasiS Ltd/Pruned_Excel/Semi_Final/MphasiS Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/MphasiS Ltd/Pruned_Excel/Semi_Final/MphasiS Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="113">
   <si>
     <t>Balance Sheet of MphasiS(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Oct 08</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Oct 09</t>
-  </si>
-  <si>
-    <t>Oct 10</t>
-  </si>
-  <si>
-    <t>Oct 11</t>
-  </si>
-  <si>
-    <t>Oct 12</t>
-  </si>
-  <si>
-    <t>Oct 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Cash Flow of MphasiS(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of MphasiS(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,48 +278,9 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>07</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -327,9 +291,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>Q1</t>
@@ -753,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,824 +760,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>161.02</v>
-      </c>
-      <c r="C2">
-        <v>371.69</v>
       </c>
       <c r="D2">
         <v>371.69</v>
       </c>
       <c r="E2">
+        <v>371.69</v>
+      </c>
+      <c r="F2">
         <v>532.7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>73.91</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>209.95</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>744.21</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6.29</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>18.15</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>480.25</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>263.96</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>744.21</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
         <v>164.08</v>
-      </c>
-      <c r="C3">
-        <v>627.77</v>
       </c>
       <c r="D3">
         <v>627.77</v>
       </c>
       <c r="E3">
+        <v>627.77</v>
+      </c>
+      <c r="F3">
         <v>791.85</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>107.13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>306.16</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1143.43</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>96.22</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>125.11</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>586.34</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>557.09</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1143.43</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>208.93</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>960.35</v>
+        <v>208.73</v>
       </c>
       <c r="D4">
-        <v>960.35</v>
+        <v>773.9299999999999</v>
       </c>
       <c r="E4">
-        <v>1169.28</v>
+        <v>773.9299999999999</v>
       </c>
       <c r="F4">
-        <v>204.93</v>
+        <v>982.67</v>
       </c>
       <c r="G4">
-        <v>696.53</v>
+        <v>129.6</v>
       </c>
       <c r="H4">
-        <v>1870.42</v>
+        <v>502.47</v>
       </c>
       <c r="I4">
-        <v>157.58</v>
+        <v>1489.87</v>
       </c>
       <c r="J4">
-        <v>247.95</v>
+        <v>149.13</v>
       </c>
       <c r="K4">
-        <v>726.4299999999999</v>
+        <v>219.22</v>
       </c>
       <c r="L4">
-        <v>1143.99</v>
+        <v>691.5</v>
       </c>
       <c r="M4">
-        <v>1870.42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>798.38</v>
+      </c>
+      <c r="N4">
+        <v>1489.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>208.73</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>773.9299999999999</v>
+        <v>208.93</v>
       </c>
       <c r="D5">
-        <v>773.9299999999999</v>
+        <v>960.35</v>
       </c>
       <c r="E5">
-        <v>982.67</v>
+        <v>960.35</v>
       </c>
       <c r="F5">
-        <v>129.6</v>
+        <v>1169.28</v>
       </c>
       <c r="G5">
-        <v>502.47</v>
+        <v>204.93</v>
       </c>
       <c r="H5">
-        <v>1489.87</v>
+        <v>696.53</v>
       </c>
       <c r="I5">
-        <v>149.13</v>
+        <v>1870.42</v>
       </c>
       <c r="J5">
-        <v>219.22</v>
+        <v>157.58</v>
       </c>
       <c r="K5">
-        <v>691.5</v>
+        <v>247.95</v>
       </c>
       <c r="L5">
-        <v>798.38</v>
+        <v>726.4299999999999</v>
       </c>
       <c r="M5">
-        <v>1489.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1143.99</v>
+      </c>
+      <c r="N5">
+        <v>1870.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>209.58</v>
-      </c>
-      <c r="C6">
-        <v>1815.2</v>
       </c>
       <c r="D6">
         <v>1815.2</v>
       </c>
       <c r="E6">
+        <v>1815.2</v>
+      </c>
+      <c r="F6">
         <v>2024.78</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>376.91</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1081.45</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3232.73</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>148.36</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>192.57</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1502.14</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1730.59</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3232.73</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>209.93</v>
-      </c>
-      <c r="C7">
-        <v>2698.63</v>
       </c>
       <c r="D7">
         <v>2698.63</v>
       </c>
       <c r="E7">
+        <v>2698.63</v>
+      </c>
+      <c r="F7">
         <v>2908.56</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>472.62</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>855.83</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3765.25</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>103.69</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>150.09</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1902.06</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1863.19</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>3765.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>210.04</v>
-      </c>
-      <c r="C8">
-        <v>3197.91</v>
       </c>
       <c r="D8">
         <v>3197.91</v>
       </c>
       <c r="E8">
+        <v>3197.91</v>
+      </c>
+      <c r="F8">
         <v>3407.96</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>94.41</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1147.29</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4579.02</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>157.73</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>176.54</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1481.44</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3097.58</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4579.02</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>210.11</v>
-      </c>
-      <c r="C9">
-        <v>3422.01</v>
       </c>
       <c r="D9">
         <v>3422.01</v>
       </c>
       <c r="E9">
+        <v>3422.01</v>
+      </c>
+      <c r="F9">
         <v>3632.12</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>52.21</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1445.22</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5092.29</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>110.34</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>132.63</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1381.82</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3710.47</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5092.29</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>210.13</v>
-      </c>
-      <c r="C10">
-        <v>3506.62</v>
       </c>
       <c r="D10">
         <v>3506.62</v>
       </c>
       <c r="E10">
+        <v>3506.62</v>
+      </c>
+      <c r="F10">
         <v>3716.76</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>68.64</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1202.74</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4950.71</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>59.51</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>73.38</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2708.67</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2242.03</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>4950.71</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
         <v>210.14</v>
-      </c>
-      <c r="C11">
-        <v>3644.63</v>
       </c>
       <c r="D11">
         <v>3644.63</v>
       </c>
       <c r="E11">
+        <v>3644.63</v>
+      </c>
+      <c r="F11">
         <v>3854.77</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>68.90000000000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>825.28</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4690.23</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>63.71</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>76.16</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2536.42</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2153.81</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4690.23</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
         <v>210.15</v>
-      </c>
-      <c r="C12">
-        <v>3839.36</v>
       </c>
       <c r="D12">
         <v>3839.36</v>
       </c>
       <c r="E12">
+        <v>3839.36</v>
+      </c>
+      <c r="F12">
         <v>4049.51</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>181.33</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1072.24</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5177.88</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>56.55</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>65.20999999999999</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2363.97</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2813.91</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>5177.88</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
         <v>210.19</v>
-      </c>
-      <c r="C13">
-        <v>4293.86</v>
       </c>
       <c r="D13">
         <v>4293.86</v>
       </c>
       <c r="E13">
+        <v>4293.86</v>
+      </c>
+      <c r="F13">
         <v>4504.05</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>212.66</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>749.14</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5329.3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>43.42</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>50.57</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2449.95</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2879.35</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5329.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
         <v>210.42</v>
-      </c>
-      <c r="C14">
-        <v>4484.9</v>
       </c>
       <c r="D14">
         <v>4484.9</v>
       </c>
       <c r="E14">
+        <v>4484.9</v>
+      </c>
+      <c r="F14">
         <v>4695.33</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>166.71</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>625.1900000000001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5375.2</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>62.85</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>77.70999999999999</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2323.29</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3051.91</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5375.2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>193.27</v>
-      </c>
-      <c r="C15">
-        <v>3714.16</v>
       </c>
       <c r="D15">
         <v>3714.16</v>
       </c>
       <c r="E15">
+        <v>3714.16</v>
+      </c>
+      <c r="F15">
         <v>3907.42</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>233.28</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>697.78</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4665.95</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>52.9</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>66.55</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2372.17</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2293.78</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4665.95</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>186.23</v>
-      </c>
-      <c r="C16">
-        <v>3077.4</v>
       </c>
       <c r="D16">
         <v>3077.4</v>
       </c>
       <c r="E16">
+        <v>3077.4</v>
+      </c>
+      <c r="F16">
         <v>3263.62</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>343.89</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>923.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>4277.71</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>88.61</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>100.56</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2326.76</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1950.95</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>4277.71</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
         <v>186.54</v>
-      </c>
-      <c r="C17">
-        <v>3490.66</v>
       </c>
       <c r="D17">
         <v>3490.66</v>
       </c>
       <c r="E17">
+        <v>3490.66</v>
+      </c>
+      <c r="F17">
         <v>3677.2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>474.89</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1218.3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5512.36</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>624.66</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>641.66</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2945.81</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2566.56</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5512.36</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
         <v>187.05</v>
-      </c>
-      <c r="C18">
-        <v>4123</v>
       </c>
       <c r="D18">
         <v>4123</v>
       </c>
       <c r="E18">
+        <v>4123</v>
+      </c>
+      <c r="F18">
         <v>4310.05</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>390.46</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1123.75</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5944.11</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>588.23</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>596.42</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2891.87</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3052.24</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5944.11</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
         <v>187.83</v>
-      </c>
-      <c r="C19">
-        <v>4259.83</v>
       </c>
       <c r="D19">
         <v>4259.83</v>
       </c>
       <c r="E19">
+        <v>4259.83</v>
+      </c>
+      <c r="F19">
         <v>4447.65</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>682.42</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1947.08</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>6918.53</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>578.3099999999999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>582.9400000000001</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3009.2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3909.33</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>6918.53</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
         <v>188.41</v>
-      </c>
-      <c r="C20">
-        <v>4820.29</v>
       </c>
       <c r="D20">
         <v>4820.29</v>
       </c>
       <c r="E20">
+        <v>4820.29</v>
+      </c>
+      <c r="F20">
         <v>5008.7</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>810.84</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1660.1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>7234.14</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>670.9400000000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>678.91</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2989.43</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>4244.71</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>7234.14</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
         <v>189.01</v>
-      </c>
-      <c r="C21">
-        <v>5531.97</v>
       </c>
       <c r="D21">
         <v>5531.97</v>
       </c>
       <c r="E21">
+        <v>5531.97</v>
+      </c>
+      <c r="F21">
         <v>5720.98</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>788.5700000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1360.12</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>7623.89</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>680.34</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>696</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3008.58</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4615.31</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>7623.89</v>
       </c>
     </row>
@@ -1627,618 +1651,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+      <c r="C2">
         <v>78.89</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>79.13</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-78.31</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-7.22</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-6.4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>26.73</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>19.93</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
         <v>140.6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>132.66</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-100.75</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-43.89</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.47</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-11.51</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>130.82</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>119.31</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>268.66</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>129.66</v>
+        <v>224.36</v>
       </c>
       <c r="D4">
-        <v>-92.73</v>
+        <v>175.33</v>
       </c>
       <c r="E4">
-        <v>-68.73999999999999</v>
+        <v>-172.29</v>
       </c>
       <c r="F4">
+        <v>-62.48</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>-31.81</v>
-      </c>
       <c r="H4">
+        <v>-59.44</v>
+      </c>
+      <c r="I4">
+        <v>119.31</v>
+      </c>
+      <c r="J4">
         <v>59.86</v>
       </c>
-      <c r="I4">
-        <v>28.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>224.36</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>175.33</v>
+        <v>268.66</v>
       </c>
       <c r="D5">
-        <v>-172.29</v>
+        <v>129.66</v>
       </c>
       <c r="E5">
-        <v>-62.48</v>
+        <v>-92.73</v>
       </c>
       <c r="F5">
+        <v>-68.73999999999999</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>-59.44</v>
-      </c>
       <c r="H5">
-        <v>119.31</v>
+        <v>-31.81</v>
       </c>
       <c r="I5">
         <v>59.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>28.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>870.8099999999999</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>874.33</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-877.41</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>65.08</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>61.99</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>35.02</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>97.01000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>1092.1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>659.64</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-508.25</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-208.38</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-56.99</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>111.61</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>54.61</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>911.58</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>624.97</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-722.92</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>130.32</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>32.37</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>45.31</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>77.69</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>753.24</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>733.3099999999999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-551.0700000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-109.69</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>72.54000000000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>77.69</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>150.23</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>723.1900000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>763.05</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-716.89</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>41.17</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>150.23</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>191.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
         <v>313.82</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>97.39</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>298.75</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-418.13</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-21.99</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>191.4</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>169.41</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
         <v>731.66</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>338.45</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-265.2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-53.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19.84</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>169.41</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>189.26</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
         <v>649.22</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>383.81</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-37.46</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-404.34</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-57.99</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>190.11</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>132.12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
         <v>831.15</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>400.4</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>359.88</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-640.34</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>119.94</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>132.12</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>252.05</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>943.55</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>766</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>551.7</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-1372.16</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-54.47</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>252.05</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>197.59</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>972.7</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>845.59</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>454.28</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1353.63</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-53.76</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>197.59</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>143.83</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
         <v>1387.64</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>942.99</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>432.16</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-770.46</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>604.7</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>143.83</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>748.53</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
         <v>1445.76</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1289.94</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-739.98</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-807.27</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-257.31</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>746.45</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>489.14</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
         <v>1620.21</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1163.39</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-14.66</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-1152.22</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-3.48</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>489.14</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>485.67</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
         <v>1881.97</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1082.42</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>321.72</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1254.12</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>150.02</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>485.67</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>635.6900000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
         <v>2038.13</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1932.29</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-973.5</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-1185.02</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-226.23</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>635.6900000000001</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>409.46</v>
       </c>
     </row>
@@ -2249,86 +2336,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>380.67</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
       <c r="C2">
         <v>380.67</v>
@@ -2337,46 +2427,46 @@
         <v>380.67</v>
       </c>
       <c r="E2">
+        <v>380.67</v>
+      </c>
+      <c r="F2">
         <v>7.28</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>387.95</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>168.05</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>81.17</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4.87</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>8.380000000000001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>44.01</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>309.06</v>
-      </c>
-      <c r="M2">
-        <v>78.89</v>
       </c>
       <c r="N2">
         <v>78.89</v>
       </c>
       <c r="O2">
+        <v>78.89</v>
+      </c>
+      <c r="P2">
         <v>2.67</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-0.73</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.67</v>
-      </c>
-      <c r="R2">
-        <v>76.23</v>
       </c>
       <c r="S2">
         <v>76.23</v>
@@ -2385,18 +2475,21 @@
         <v>76.23</v>
       </c>
       <c r="U2">
-        <v>4.73</v>
+        <v>76.23</v>
       </c>
       <c r="V2">
         <v>4.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>1102.85</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
       </c>
       <c r="C3">
         <v>1102.85</v>
@@ -2405,46 +2498,46 @@
         <v>1102.85</v>
       </c>
       <c r="E3">
+        <v>1102.85</v>
+      </c>
+      <c r="F3">
         <v>-6.94</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1095.92</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>273.97</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>387.24</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>51.25</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>229.59</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>955.3200000000001</v>
-      </c>
-      <c r="M3">
-        <v>140.6</v>
       </c>
       <c r="N3">
         <v>140.6</v>
       </c>
       <c r="O3">
+        <v>140.6</v>
+      </c>
+      <c r="P3">
         <v>8.880000000000001</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-3.47</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9.06</v>
-      </c>
-      <c r="R3">
-        <v>131.53</v>
       </c>
       <c r="S3">
         <v>131.53</v>
@@ -2453,154 +2546,163 @@
         <v>131.53</v>
       </c>
       <c r="U3">
-        <v>8.02</v>
+        <v>131.53</v>
       </c>
       <c r="V3">
         <v>8.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1451.55</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>1451.55</v>
+        <v>1703.56</v>
       </c>
       <c r="D4">
-        <v>1451.55</v>
+        <v>1703.56</v>
       </c>
       <c r="E4">
-        <v>22.29</v>
+        <v>1703.56</v>
       </c>
       <c r="F4">
-        <v>1473.84</v>
+        <v>-4.15</v>
       </c>
       <c r="G4">
-        <v>460.8</v>
+        <v>1699.41</v>
       </c>
       <c r="H4">
-        <v>466.19</v>
+        <v>426.38</v>
       </c>
       <c r="I4">
-        <v>0.74</v>
+        <v>674.84</v>
       </c>
       <c r="J4">
-        <v>69.09</v>
+        <v>0.22</v>
       </c>
       <c r="K4">
-        <v>208.36</v>
+        <v>86.95</v>
       </c>
       <c r="L4">
-        <v>1205.18</v>
+        <v>264.17</v>
       </c>
       <c r="M4">
-        <v>268.66</v>
+        <v>1475.06</v>
       </c>
       <c r="N4">
-        <v>268.66</v>
+        <v>224.36</v>
       </c>
       <c r="O4">
-        <v>7.72</v>
+        <v>224.36</v>
       </c>
       <c r="P4">
-        <v>-6.16</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Q4">
-        <v>4.15</v>
+        <v>-10.27</v>
       </c>
       <c r="R4">
-        <v>264.51</v>
+        <v>3.59</v>
       </c>
       <c r="S4">
-        <v>264.51</v>
+        <v>220.77</v>
       </c>
       <c r="T4">
-        <v>264.51</v>
+        <v>220.77</v>
       </c>
       <c r="U4">
-        <v>12.66</v>
+        <v>220.77</v>
       </c>
       <c r="V4">
-        <v>12.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>10.58</v>
+      </c>
+      <c r="W4">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>1703.56</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>1703.56</v>
+        <v>1451.55</v>
       </c>
       <c r="D5">
-        <v>1703.56</v>
+        <v>1451.55</v>
       </c>
       <c r="E5">
-        <v>-4.15</v>
+        <v>1451.55</v>
       </c>
       <c r="F5">
-        <v>1699.41</v>
+        <v>22.29</v>
       </c>
       <c r="G5">
-        <v>426.38</v>
+        <v>1473.84</v>
       </c>
       <c r="H5">
-        <v>674.84</v>
+        <v>460.8</v>
       </c>
       <c r="I5">
-        <v>0.22</v>
+        <v>466.19</v>
       </c>
       <c r="J5">
-        <v>86.95</v>
+        <v>0.74</v>
       </c>
       <c r="K5">
-        <v>264.17</v>
+        <v>69.09</v>
       </c>
       <c r="L5">
-        <v>1475.06</v>
+        <v>208.36</v>
       </c>
       <c r="M5">
-        <v>224.36</v>
+        <v>1205.18</v>
       </c>
       <c r="N5">
-        <v>224.36</v>
+        <v>268.66</v>
       </c>
       <c r="O5">
-        <v>8.779999999999999</v>
+        <v>268.66</v>
       </c>
       <c r="P5">
-        <v>-10.27</v>
+        <v>7.72</v>
       </c>
       <c r="Q5">
-        <v>3.59</v>
+        <v>-6.16</v>
       </c>
       <c r="R5">
-        <v>220.77</v>
+        <v>4.15</v>
       </c>
       <c r="S5">
-        <v>220.77</v>
+        <v>264.51</v>
       </c>
       <c r="T5">
-        <v>220.77</v>
+        <v>264.51</v>
       </c>
       <c r="U5">
-        <v>10.58</v>
+        <v>264.51</v>
       </c>
       <c r="V5">
-        <v>10.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>12.66</v>
+      </c>
+      <c r="W5">
+        <v>12.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>3405.02</v>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>3405.02</v>
@@ -2609,66 +2711,69 @@
         <v>3405.02</v>
       </c>
       <c r="E6">
+        <v>3405.02</v>
+      </c>
+      <c r="F6">
         <v>55.98</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3461</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1018.98</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1076.91</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5.68</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>137.03</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>351.59</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2590.19</v>
-      </c>
-      <c r="M6">
-        <v>870.8099999999999</v>
       </c>
       <c r="N6">
         <v>870.8099999999999</v>
       </c>
       <c r="O6">
+        <v>870.8099999999999</v>
+      </c>
+      <c r="P6">
         <v>63.49</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-31.68</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>33.94</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>836.87</v>
-      </c>
-      <c r="S6">
-        <v>836.86</v>
       </c>
       <c r="T6">
         <v>836.86</v>
       </c>
       <c r="U6">
-        <v>39.93</v>
+        <v>836.86</v>
       </c>
       <c r="V6">
         <v>39.93</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>3770.09</v>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>3770.09</v>
@@ -2677,66 +2782,69 @@
         <v>3770.09</v>
       </c>
       <c r="E7">
+        <v>3770.09</v>
+      </c>
+      <c r="F7">
         <v>111.45</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3881.54</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>995.01</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1352.09</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.41</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>115.79</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>325.14</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2789.43</v>
-      </c>
-      <c r="M7">
-        <v>1092.1</v>
       </c>
       <c r="N7">
         <v>1092.1</v>
       </c>
       <c r="O7">
+        <v>1092.1</v>
+      </c>
+      <c r="P7">
         <v>100.25</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-5.02</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>95.22</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>996.88</v>
-      </c>
-      <c r="S7">
-        <v>996.83</v>
       </c>
       <c r="T7">
         <v>996.83</v>
       </c>
       <c r="U7">
-        <v>47.48</v>
+        <v>996.83</v>
       </c>
       <c r="V7">
         <v>47.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>47.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>3404.13</v>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>3404.13</v>
@@ -2745,46 +2853,46 @@
         <v>3404.13</v>
       </c>
       <c r="E8">
+        <v>3404.13</v>
+      </c>
+      <c r="F8">
         <v>161.88</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3566.01</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1541.5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.23</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>106.61</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>982.2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2654.43</v>
-      </c>
-      <c r="M8">
-        <v>911.58</v>
       </c>
       <c r="N8">
         <v>911.58</v>
       </c>
       <c r="O8">
+        <v>911.58</v>
+      </c>
+      <c r="P8">
         <v>192.57</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-14.16</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>129.57</v>
-      </c>
-      <c r="R8">
-        <v>782.01</v>
       </c>
       <c r="S8">
         <v>782.01</v>
@@ -2793,18 +2901,21 @@
         <v>782.01</v>
       </c>
       <c r="U8">
+        <v>782.01</v>
+      </c>
+      <c r="V8">
         <v>37.24</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>37.13</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
-        <v>3420.84</v>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>3420.84</v>
@@ -2813,46 +2924,46 @@
         <v>3420.84</v>
       </c>
       <c r="E9">
+        <v>3420.84</v>
+      </c>
+      <c r="F9">
         <v>147.18</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3568.02</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1506.22</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>11.94</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>114.38</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1139.42</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2814.78</v>
-      </c>
-      <c r="M9">
-        <v>753.24</v>
       </c>
       <c r="N9">
         <v>753.24</v>
       </c>
       <c r="O9">
+        <v>753.24</v>
+      </c>
+      <c r="P9">
         <v>151.9</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-7.02</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>142.2</v>
-      </c>
-      <c r="R9">
-        <v>611.05</v>
       </c>
       <c r="S9">
         <v>611.05</v>
@@ -2861,18 +2972,21 @@
         <v>611.05</v>
       </c>
       <c r="U9">
+        <v>611.05</v>
+      </c>
+      <c r="V9">
         <v>29.09</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>29.03</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
-        <v>3321.48</v>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>3321.48</v>
@@ -2881,46 +2995,46 @@
         <v>3321.48</v>
       </c>
       <c r="E10">
+        <v>3321.48</v>
+      </c>
+      <c r="F10">
         <v>124.39</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3445.87</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1509.58</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13.48</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>79.86</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1119.76</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2722.68</v>
-      </c>
-      <c r="M10">
-        <v>723.1900000000001</v>
       </c>
       <c r="N10">
         <v>723.1900000000001</v>
       </c>
       <c r="O10">
+        <v>723.1900000000001</v>
+      </c>
+      <c r="P10">
         <v>171.65</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>14.61</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>183.68</v>
-      </c>
-      <c r="R10">
-        <v>539.51</v>
       </c>
       <c r="S10">
         <v>539.51</v>
@@ -2929,18 +3043,21 @@
         <v>539.51</v>
       </c>
       <c r="U10">
+        <v>539.51</v>
+      </c>
+      <c r="V10">
         <v>25.68</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>25.64</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <v>1328.97</v>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1328.97</v>
@@ -2949,46 +3066,46 @@
         <v>1328.97</v>
       </c>
       <c r="E11">
+        <v>1328.97</v>
+      </c>
+      <c r="F11">
         <v>46.21</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1375.18</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>615.26</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.42</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>19.44</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>426.23</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1061.36</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>313.82</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>307.38</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>77.03</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>7.27</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>84.3</v>
-      </c>
-      <c r="R11">
-        <v>223.08</v>
       </c>
       <c r="S11">
         <v>223.08</v>
@@ -2997,18 +3114,21 @@
         <v>223.08</v>
       </c>
       <c r="U11">
+        <v>223.08</v>
+      </c>
+      <c r="V11">
         <v>10.62</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>10.6</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>3026.45</v>
+      <c r="B12" t="s">
+        <v>33</v>
       </c>
       <c r="C12">
         <v>3026.45</v>
@@ -3017,46 +3137,46 @@
         <v>3026.45</v>
       </c>
       <c r="E12">
+        <v>3026.45</v>
+      </c>
+      <c r="F12">
         <v>162.14</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3188.59</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1455.79</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>5.92</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>33.12</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>962.1</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2456.93</v>
-      </c>
-      <c r="M12">
-        <v>731.66</v>
       </c>
       <c r="N12">
         <v>731.66</v>
       </c>
       <c r="O12">
+        <v>731.66</v>
+      </c>
+      <c r="P12">
         <v>172.24</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>6.39</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>178.63</v>
-      </c>
-      <c r="R12">
-        <v>553.03</v>
       </c>
       <c r="S12">
         <v>553.03</v>
@@ -3065,66 +3185,69 @@
         <v>553.03</v>
       </c>
       <c r="U12">
+        <v>553.03</v>
+      </c>
+      <c r="V12">
         <v>26.32</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>26.28</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <v>2909.88</v>
+      <c r="B13" t="s">
+        <v>33</v>
       </c>
       <c r="C13">
         <v>2909.88</v>
       </c>
       <c r="D13">
+        <v>2909.88</v>
+      </c>
+      <c r="E13">
         <v>2923.64</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>158.19</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3081.84</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1390.18</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6.43</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>28.76</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>969.1799999999999</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2432.61</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>649.22</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>607.15</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>165.89</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-15.87</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>150.02</v>
-      </c>
-      <c r="R13">
-        <v>457.14</v>
       </c>
       <c r="S13">
         <v>457.14</v>
@@ -3133,66 +3256,69 @@
         <v>457.14</v>
       </c>
       <c r="U13">
+        <v>457.14</v>
+      </c>
+      <c r="V13">
         <v>21.78</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>21.75</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>2945.45</v>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="C14">
         <v>2945.45</v>
       </c>
       <c r="D14">
+        <v>2945.45</v>
+      </c>
+      <c r="E14">
         <v>3018.55</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>186.58</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3205.14</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1356.5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.4</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>26.38</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>984.59</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2373.99</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>831.15</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>826.35</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>203.63</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-2.29</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>201.34</v>
-      </c>
-      <c r="R14">
-        <v>625.01</v>
       </c>
       <c r="S14">
         <v>625.01</v>
@@ -3201,66 +3327,69 @@
         <v>625.01</v>
       </c>
       <c r="U14">
+        <v>625.01</v>
+      </c>
+      <c r="V14">
         <v>29.76</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>29.71</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>3114.92</v>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15">
         <v>3114.92</v>
       </c>
       <c r="D15">
+        <v>3114.92</v>
+      </c>
+      <c r="E15">
         <v>3274.87</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>121.62</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3396.49</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>406.17</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1391.55</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5.24</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>31.79</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>618.1900000000001</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2452.94</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>943.55</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>930.47</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>218.36</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-27.77</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>190.58</v>
-      </c>
-      <c r="R15">
-        <v>739.89</v>
       </c>
       <c r="S15">
         <v>739.89</v>
@@ -3269,66 +3398,69 @@
         <v>739.89</v>
       </c>
       <c r="U15">
+        <v>739.89</v>
+      </c>
+      <c r="V15">
         <v>37.69</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>37.63</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
-        <v>3520.43</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16">
         <v>3520.43</v>
       </c>
       <c r="D16">
+        <v>3520.43</v>
+      </c>
+      <c r="E16">
         <v>3434.02</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>118.59</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3552.61</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>444.52</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1441.14</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6.67</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>38.39</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>649.1900000000001</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2579.91</v>
-      </c>
-      <c r="M16">
-        <v>972.7</v>
       </c>
       <c r="N16">
         <v>972.7</v>
       </c>
       <c r="O16">
+        <v>972.7</v>
+      </c>
+      <c r="P16">
         <v>199.5</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3.77</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>203.27</v>
-      </c>
-      <c r="R16">
-        <v>769.4299999999999</v>
       </c>
       <c r="S16">
         <v>769.4299999999999</v>
@@ -3337,66 +3469,69 @@
         <v>769.4299999999999</v>
       </c>
       <c r="U16">
+        <v>769.4299999999999</v>
+      </c>
+      <c r="V16">
         <v>40.18</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>39.78</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
-        <v>4332.42</v>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
       <c r="C17">
         <v>4332.42</v>
       </c>
       <c r="D17">
+        <v>4332.42</v>
+      </c>
+      <c r="E17">
         <v>4347.14</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>323.29</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4670.43</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>90.54000000000001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1662.11</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>63.04</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>153.24</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1313.86</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3282.79</v>
-      </c>
-      <c r="M17">
-        <v>1387.64</v>
       </c>
       <c r="N17">
         <v>1387.64</v>
       </c>
       <c r="O17">
+        <v>1387.64</v>
+      </c>
+      <c r="P17">
         <v>202.99</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-20.41</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>182.58</v>
-      </c>
-      <c r="R17">
-        <v>1205.06</v>
       </c>
       <c r="S17">
         <v>1205.06</v>
@@ -3405,66 +3540,69 @@
         <v>1205.06</v>
       </c>
       <c r="U17">
+        <v>1205.06</v>
+      </c>
+      <c r="V17">
         <v>64.66</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>64.17</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
-        <v>5529.41</v>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
       <c r="C18">
         <v>5529.41</v>
       </c>
       <c r="D18">
+        <v>5529.41</v>
+      </c>
+      <c r="E18">
         <v>5561.25</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>89.45999999999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5650.71</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>31.84</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1774.54</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>52.05</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>150.55</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2195.96</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4204.95</v>
-      </c>
-      <c r="M18">
-        <v>1445.76</v>
       </c>
       <c r="N18">
         <v>1445.76</v>
       </c>
       <c r="O18">
+        <v>1445.76</v>
+      </c>
+      <c r="P18">
         <v>336.7</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-1.3</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>335.4</v>
-      </c>
-      <c r="R18">
-        <v>1110.36</v>
       </c>
       <c r="S18">
         <v>1110.36</v>
@@ -3473,66 +3611,69 @@
         <v>1110.36</v>
       </c>
       <c r="U18">
+        <v>1110.36</v>
+      </c>
+      <c r="V18">
         <v>59.48</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>58.79</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>7290.96</v>
+      <c r="B19" t="s">
+        <v>33</v>
       </c>
       <c r="C19">
         <v>7290.96</v>
       </c>
       <c r="D19">
+        <v>7290.96</v>
+      </c>
+      <c r="E19">
         <v>7389.55</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>123.22</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7512.77</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>108.45</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2397.32</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>58.71</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>149.4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3178.69</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>5892.56</v>
-      </c>
-      <c r="M19">
-        <v>1620.21</v>
       </c>
       <c r="N19">
         <v>1620.21</v>
       </c>
       <c r="O19">
+        <v>1620.21</v>
+      </c>
+      <c r="P19">
         <v>390.87</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-5.91</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>384.96</v>
-      </c>
-      <c r="R19">
-        <v>1235.25</v>
       </c>
       <c r="S19">
         <v>1235.25</v>
@@ -3541,66 +3682,69 @@
         <v>1235.25</v>
       </c>
       <c r="U19">
+        <v>1235.25</v>
+      </c>
+      <c r="V19">
         <v>65.93000000000001</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>65.27</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
-        <v>9470.530000000001</v>
+      <c r="B20" t="s">
+        <v>33</v>
       </c>
       <c r="C20">
         <v>9470.530000000001</v>
       </c>
       <c r="D20">
+        <v>9470.530000000001</v>
+      </c>
+      <c r="E20">
         <v>9424.639999999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>118.49</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9543.129999999999</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>149.84</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2892.06</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>73.7</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>175.75</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4369.82</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>7661.16</v>
-      </c>
-      <c r="M20">
-        <v>1881.97</v>
       </c>
       <c r="N20">
         <v>1881.97</v>
       </c>
       <c r="O20">
+        <v>1881.97</v>
+      </c>
+      <c r="P20">
         <v>457.84</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>10.26</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>468.1</v>
-      </c>
-      <c r="R20">
-        <v>1413.87</v>
       </c>
       <c r="S20">
         <v>1413.87</v>
@@ -3609,66 +3753,69 @@
         <v>1413.87</v>
       </c>
       <c r="U20">
+        <v>1413.87</v>
+      </c>
+      <c r="V20">
         <v>75.14</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>74.56</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
-        <v>9148.01</v>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
       <c r="C21">
         <v>9148.01</v>
       </c>
       <c r="D21">
+        <v>9148.01</v>
+      </c>
+      <c r="E21">
         <v>9092.969999999999</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>135.28</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9228.25</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>165.32</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2760.47</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>66.09</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>192.88</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4005.37</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>7190.12</v>
-      </c>
-      <c r="M21">
-        <v>2038.13</v>
       </c>
       <c r="N21">
         <v>2038.13</v>
       </c>
       <c r="O21">
+        <v>2038.13</v>
+      </c>
+      <c r="P21">
         <v>561.65</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>30.34</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>591.99</v>
-      </c>
-      <c r="R21">
-        <v>1446.14</v>
       </c>
       <c r="S21">
         <v>1446.14</v>
@@ -3677,9 +3824,12 @@
         <v>1446.14</v>
       </c>
       <c r="U21">
+        <v>1446.14</v>
+      </c>
+      <c r="V21">
         <v>76.65000000000001</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>76.11</v>
       </c>
     </row>
@@ -3698,81 +3848,81 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D2">
         <v>826.13</v>
@@ -3837,10 +3987,10 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>809.5599999999999</v>
@@ -3905,10 +4055,10 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>797.3200000000001</v>
@@ -3973,13 +4123,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>779.9</v>
@@ -4044,13 +4194,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>760.55</v>
@@ -4115,13 +4265,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>748.62</v>
@@ -4186,13 +4336,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>737.35</v>
@@ -4257,13 +4407,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <v>737.89</v>
@@ -4328,13 +4478,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>755.9</v>
@@ -4399,13 +4549,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D11">
         <v>731.91</v>
@@ -4470,13 +4620,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>697.95</v>
@@ -4541,13 +4691,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>713.39</v>
@@ -4612,13 +4762,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D14">
         <v>763.71</v>
@@ -4683,13 +4833,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>780.89</v>
@@ -4754,13 +4904,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>760.5700000000001</v>
@@ -4825,13 +4975,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>785.99</v>
@@ -4896,13 +5046,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D18">
         <v>805.7</v>
@@ -4967,13 +5117,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <v>827.87</v>
@@ -5038,13 +5188,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D20">
         <v>855.3099999999999</v>
@@ -5109,13 +5259,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D21">
         <v>824.54</v>
@@ -5180,13 +5330,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>852.42</v>
@@ -5251,13 +5401,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>862.3</v>
@@ -5322,13 +5472,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D24">
         <v>894.77</v>
@@ -5393,13 +5543,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>104</v>
       </c>
       <c r="D25">
         <v>960.3</v>
@@ -5464,13 +5614,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>1048.79</v>
@@ -5535,13 +5685,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <v>1128.53</v>
@@ -5606,13 +5756,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <v>1209.53</v>
@@ -5677,13 +5827,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>1133.01</v>
@@ -5748,13 +5898,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
         <v>92</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
       </c>
       <c r="D30">
         <v>1405.64</v>
@@ -5819,13 +5969,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>1482.95</v>
@@ -5890,13 +6040,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>1539.66</v>
@@ -5961,13 +6111,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <v>1602.95</v>
@@ -6032,13 +6182,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>1780.31</v>
@@ -6103,13 +6253,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
       </c>
       <c r="D35">
         <v>1944.97</v>
@@ -6174,13 +6324,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
         <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
       </c>
       <c r="D36">
         <v>2061.32</v>
@@ -6245,13 +6395,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D37">
         <v>2223.4</v>
@@ -6316,13 +6466,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <v>2370.57</v>
@@ -6387,13 +6537,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D39">
         <v>2418.89</v>
@@ -6458,13 +6608,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>2411.78</v>
@@ -6529,13 +6679,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>2330.36</v>
@@ -6600,13 +6750,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>2284.71</v>
@@ -6671,13 +6821,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D43">
         <v>2222.63</v>
@@ -6742,13 +6892,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>2255.28</v>
@@ -6813,13 +6963,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D45">
         <v>2318.19</v>
@@ -6884,13 +7034,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D46">
         <v>2354.69</v>
@@ -6960,1185 +7110,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
         <v>23.64</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.72</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5.2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4.9</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.73</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>24.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>20.72</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20.02</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>14.3</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10.24</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>63.88</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>57.55</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>36.12</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3335.63</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>36.2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
         <v>67.20999999999999</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>11.77</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8.640000000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8.57</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8.02</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>17.5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12.85</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12.74</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11.92</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>16.61</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11.5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>47.68</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>34.31</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>52.32</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4513.13</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>23.38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>69.48</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>16.2</v>
+        <v>81.62</v>
       </c>
       <c r="D4">
-        <v>12.89</v>
+        <v>14.92</v>
       </c>
       <c r="E4">
-        <v>12.86</v>
+        <v>10.76</v>
       </c>
       <c r="F4">
-        <v>12.66</v>
+        <v>10.75</v>
       </c>
       <c r="G4">
-        <v>23.31</v>
+        <v>10.58</v>
       </c>
       <c r="H4">
-        <v>18.55</v>
+        <v>18.28</v>
       </c>
       <c r="I4">
-        <v>18.5</v>
+        <v>13.18</v>
       </c>
       <c r="J4">
-        <v>18.22</v>
+        <v>13.16</v>
       </c>
       <c r="K4">
-        <v>22.62</v>
+        <v>12.95</v>
       </c>
       <c r="L4">
-        <v>14.14</v>
+        <v>22.46</v>
       </c>
       <c r="M4">
+        <v>14.81</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="N4">
-        <v>15.81</v>
-      </c>
       <c r="O4">
-        <v>12.54</v>
+        <v>31.25</v>
       </c>
       <c r="P4">
-        <v>84.19</v>
+        <v>22.42</v>
       </c>
       <c r="Q4">
-        <v>3166.93</v>
+        <v>68.75</v>
       </c>
       <c r="R4">
-        <v>9.359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>4121.58</v>
+      </c>
+      <c r="S4">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
-        <v>81.62</v>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>14.92</v>
+        <v>69.48</v>
       </c>
       <c r="D5">
-        <v>10.76</v>
+        <v>16.2</v>
       </c>
       <c r="E5">
-        <v>10.75</v>
+        <v>12.89</v>
       </c>
       <c r="F5">
-        <v>10.58</v>
+        <v>12.86</v>
       </c>
       <c r="G5">
-        <v>18.28</v>
+        <v>12.66</v>
       </c>
       <c r="H5">
-        <v>13.18</v>
+        <v>23.31</v>
       </c>
       <c r="I5">
-        <v>13.16</v>
+        <v>18.55</v>
       </c>
       <c r="J5">
-        <v>12.95</v>
+        <v>18.5</v>
       </c>
       <c r="K5">
-        <v>22.46</v>
+        <v>18.22</v>
       </c>
       <c r="L5">
-        <v>14.81</v>
+        <v>22.62</v>
       </c>
       <c r="M5">
+        <v>14.14</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>31.25</v>
-      </c>
       <c r="O5">
-        <v>22.42</v>
+        <v>15.81</v>
       </c>
       <c r="P5">
-        <v>68.75</v>
+        <v>12.54</v>
       </c>
       <c r="Q5">
-        <v>4121.58</v>
+        <v>84.19</v>
       </c>
       <c r="R5">
-        <v>13.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>3166.93</v>
+      </c>
+      <c r="S5">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>162.47</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>48.36</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>41.82</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>41.55</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>39.93</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29.76</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>25.74</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>25.57</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>24.57</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>41.33</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>25.88</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.06</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8.76</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7.53</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>91.23999999999999</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>14217.92</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>14.03</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>179.59</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>57.6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>52.09</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52.02</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>47.48</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>32.07</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>29</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>28.96</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>26.44</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>34.27</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>26.47</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8.42</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7.54</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>91.58</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>12754.19</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>10.55</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>162.07</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>48.58</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>43.51</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>43.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>37.23</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.97</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>26.84</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>26.77</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>22.97</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>22.94</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17.07</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>17.45</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>15.36</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>82.55</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>7369.55</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>7.22</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>162.81</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>41.86</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>36.42</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>35.85</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>29.08</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>25.71</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>22.36</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>22.01</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>17.86</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>16.82</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11.99</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>58.45</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>49.23</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>41.55</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8233.629999999999</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>9.359999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>158.06</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>38.86</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>35.06</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>34.42</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>25.67</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>24.58</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>22.17</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21.77</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>16.24</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>14.51</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10.89</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>66.20999999999999</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>57.68</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>33.79</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>8638.620000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>10.58</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
         <v>63.24</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>15.88</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>14.95</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>14.63</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10.62</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>25.1</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>23.64</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23.12</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16.78</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5.78</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.75</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>65.93000000000001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>60.65</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>34.07</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8219.5</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>24.63</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
         <v>144.01</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>36.67</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>35.1</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>34.82</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>26.32</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>25.46</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>24.37</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>24.17</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>18.27</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>13.65</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10.68</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.03</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>60.79</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>57.36</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>39.21</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>7104.54</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9.220000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
         <v>139.09</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>32.56</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>31.19</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>28.89</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21.75</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23.4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>22.42</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>20.76</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15.63</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>10.14</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8.57</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.03</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>73.45999999999999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>69.11</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>26.54</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>9932.18</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14.51</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
         <v>143.45</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>40.87</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>39.61</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>39.27</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>29.7</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>28.48</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>27.61</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>27.37</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>20.7</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>13.31</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>11.62</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>80.93000000000001</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>77.66</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>19.07</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>11907.3</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>13.85</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>169.45</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>50.74</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>49.09</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>48.14</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>38.28</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>29.94</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>28.97</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>28.41</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>22.59</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>18.93</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15.85</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.03</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>53.4</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>51.2</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>46.6</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>16224.69</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>16.55</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>184.4</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>54.65</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>52.59</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>52.23</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>41.32</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>29.63</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>28.51</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>28.32</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>22.4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>23.57</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>17.98</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>50.25</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>47.86</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>49.75</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>18506.73</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>18.18</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
         <v>233.04</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>85.98</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>77.77</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>74.39</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>64.59999999999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>36.89</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>33.37</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>31.92</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>27.72</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>32.77</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>21.86</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.06</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>41.75</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>37.03</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>58.25</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>11881.81</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>7.41</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
         <v>297.32</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>88.12</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>80.08</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>77.29000000000001</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>59.36</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>29.64</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>26.93</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>25.99</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>19.96</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>25.76</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>18.68</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.04</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>58.8</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>51.78</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>41.2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>32893.56</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>19.96</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
         <v>393.43</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>97.34</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>89.39</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>86.26000000000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>65.77</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>24.74</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>22.72</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>21.92</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>16.71</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>27.77</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>17.85</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.08</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>98.56</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>87.93000000000001</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1.44</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>63240.47</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>34.59</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
         <v>500.23</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>113.13</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>103.8</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>99.89</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>75.04000000000001</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>22.61</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>20.75</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>19.96</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>15</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>28.22</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>19.54</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.02</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>61.19</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>54.43</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>38.81</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>33302.78</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>15.62</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
         <v>481.1</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>121.54</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>111.33</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>107.83</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>76.51000000000001</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>25.26</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>23.14</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>22.41</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>15.9</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>25.27</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18.96</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>65.19</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>57.52</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>34.81</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>44719.29</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>19.47</v>
       </c>
     </row>
